--- a/Question_Sets/Role-specific skills/Meta Ads.xlsx
+++ b/Question_Sets/Role-specific skills/Meta Ads.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work for a well-established ecommerce business that has gathered a lot of data from existing customers. You are planning a new reach campaign in which you intend to target both existing customers and newer audiences, with a 50-50 budget split.  What campaign structure should you use?', 'ques_type': 2, 'options': ['Two separate campaigns, with the total budget set at the account level.', 'One campaign with one ad set, using the total budget to target both audiences.', 'One campaign with two separate ad sets, with the budget set at the campaign level.', 'One campaign with two separate ad sets, with the budget set at the ad set level.'], 'score': 'One campaign with two separate ad sets, with the budget set at the ad set level.'}, {'title': 'You are the digital ads manager at a beverage company. You are running an engagement campaign that is optimized for video views. The campaign is working fairly well, but you now want to update it to narrow its targeting.How should you do this?', 'ques_type': 2, 'options': ['Edit the audience &amp;gt Narrow audience &amp;gt Update', 'Edit the audience &amp;gt Define further &amp;gt Publish', 'Duplicate the campaign &amp;gt Narrow audience &amp;gt Save as new', 'Duplicate the ad &amp;gt Narrow audience &amp;gt Update'], 'score': 'Edit the audience &amp;gt Define further &amp;gt Publish'}, {'title': 'You work for a makeup brand. You want to run a video carousel on Advantage+ placements. Which creative assets should you request?', 'ques_type': 2, 'options': ['15 videos with a ratio of 9:16', '15 videos with a ratio of 1:1', '10 videos with a ratio of 1:1', '10 videos with a ratio of 16:9'], 'score': '10 videos with a ratio of 1:1'}, {'title': 'You work for a performance marketing agency and are evaluating past campaigns.  Which of the following campaigns has the highest return on ad spend (ROAS = revenue/spend)?', 'ques_type': 2, 'options': ['Campaign #1', 'Campaign #2', 'Campaign #3', 'Campaign #4'], 'score': 'Campaign #2'}]</t>
+    <t>questions = [
+    {
+        "title": "You work for a well-established ecommerce business that has gathered a lot of data from existing customers. You are planning a new reach campaign in which you intend to target both existing customers and newer audiences, with a 50-50 budget split.  What campaign structure should you use?",
+        "ques_type": 2,
+        "options": [
+            "Two separate campaigns, with the total budget set at the account level.",
+            "One campaign with one ad set, using the total budget to target both audiences.",
+            "One campaign with two separate ad sets, with the budget set at the campaign level.",
+            "One campaign with two separate ad sets, with the budget set at the ad set level."
+        ],
+        "score": "One campaign with two separate ad sets, with the budget set at the ad set level."
+    },
+    {
+        "title": "You are the digital ads manager at a beverage company. You are running an engagement campaign that is optimized for video views. The campaign is working fairly well, but you now want to update it to narrow its targeting.How should you do this?",
+        "ques_type": 2,
+        "options": [
+            "Edit the audience &amp;gt Narrow audience &amp;gt Update",
+            "Edit the audience &amp;gt Define further &amp;gt Publish",
+            "Duplicate the campaign &amp;gt Narrow audience &amp;gt Save as new",
+            "Duplicate the ad &amp;gt Narrow audience &amp;gt Update"
+        ],
+        "score": "Edit the audience &amp;gt Define further &amp;gt Publish"
+    },
+    {
+        "title": "You work for a makeup brand. You want to run a video carousel on Advantage+ placements. Which creative assets should you request?",
+        "ques_type": 2,
+        "options": [
+            "15 videos with a ratio of 9:16",
+            "15 videos with a ratio of 1:1",
+            "10 videos with a ratio of 1:1",
+            "10 videos with a ratio of 16:9"
+        ],
+        "score": "10 videos with a ratio of 1:1"
+    },
+    {
+        "title": "You work for a performance marketing agency and are evaluating past campaigns.  Which of the following campaigns has the highest return on ad spend (ROAS = revenue/spend)?",
+        "ques_type": 2,
+        "options": [
+            "Campaign #1",
+            "Campaign #2",
+            "Campaign #3",
+            "Campaign #4"
+        ],
+        "score": "Campaign #2"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
